--- a/Database/Databae Schema.xlsx
+++ b/Database/Databae Schema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="66">
   <si>
     <t>Client Table</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>Client Address</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Service Requests</t>
-  </si>
-  <si>
     <t>Service ID</t>
   </si>
   <si>
@@ -99,18 +93,12 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Payment status</t>
-  </si>
-  <si>
     <t>Total Time</t>
   </si>
   <si>
     <t>Payment amount</t>
   </si>
   <si>
-    <t>Status id</t>
-  </si>
-  <si>
     <t>FK-Client Table</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
     <t>Rating id</t>
   </si>
   <si>
-    <t>FK-Rating</t>
-  </si>
-  <si>
     <t>Block Customer</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>BIT</t>
   </si>
   <si>
-    <t>NOT NULL DEFAULT 1</t>
-  </si>
-  <si>
     <t>Invoices</t>
   </si>
   <si>
@@ -171,35 +153,74 @@
     <t>Invoice Date</t>
   </si>
   <si>
-    <t>Invoice Amount</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of Register </t>
-  </si>
-  <si>
     <t>is Email verified</t>
   </si>
   <si>
-    <t>is Active</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>FK-Admin</t>
+    <t>Mobile number</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Favourite  Provider</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Action on</t>
+  </si>
+  <si>
+    <t>My Rating</t>
+  </si>
+  <si>
+    <t>FK-My Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service </t>
+  </si>
+  <si>
+    <t>Status ID</t>
+  </si>
+  <si>
+    <t>Status Title</t>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+  </si>
+  <si>
+    <t>Status Id</t>
+  </si>
+  <si>
+    <t>Paymet Status ID</t>
+  </si>
+  <si>
+    <t>Payment Status Title</t>
+  </si>
+  <si>
+    <t>FK-Payment Status</t>
+  </si>
+  <si>
+    <t>Payment status Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +240,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -317,12 +345,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,7 +364,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,645 +671,864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="B1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="4" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="I2" s="1"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="2"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="32" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="41" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="74" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="86" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B86" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B87" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D87" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="91" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B91" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B92" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="C92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="2"/>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A14:C14"/>
+  <mergeCells count="13">
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B62:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Database/Databae Schema.xlsx
+++ b/Database/Databae Schema.xlsx
@@ -189,9 +189,6 @@
     <t>FK-My Rating</t>
   </si>
   <si>
-    <t xml:space="preserve">Service </t>
-  </si>
-  <si>
     <t>Status ID</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>Payment status Id</t>
+  </si>
+  <si>
+    <t>Service Requests</t>
   </si>
 </sst>
 </file>
@@ -352,9 +352,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,12 +364,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,15 +690,15 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
       <c r="I2" s="1"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -710,9 +710,9 @@
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -798,11 +798,11 @@
       <c r="D11" s="2"/>
     </row>
     <row r="13" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
@@ -847,11 +847,11 @@
       <c r="D17" s="2"/>
     </row>
     <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
@@ -957,11 +957,11 @@
       <c r="D30" s="2"/>
     </row>
     <row r="32" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
@@ -1035,11 +1035,11 @@
       <c r="D39" s="2"/>
     </row>
     <row r="41" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
@@ -1145,18 +1145,18 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>2</v>
@@ -1166,11 +1166,11 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
@@ -1231,11 +1231,11 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -1285,11 +1285,11 @@
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
@@ -1334,11 +1334,11 @@
       <c r="D72" s="2"/>
     </row>
     <row r="74" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="11"/>
     </row>
     <row r="75" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
@@ -1352,13 +1352,13 @@
       </c>
     </row>
     <row r="76" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="13" t="s">
+      <c r="C76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1390,11 +1390,11 @@
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
     </row>
     <row r="81" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
@@ -1439,11 +1439,11 @@
       <c r="D84" s="2"/>
     </row>
     <row r="86" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
     </row>
     <row r="87" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
@@ -1458,7 +1458,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>2</v>
@@ -1469,19 +1469,19 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D89" s="2"/>
     </row>
     <row r="91" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
     </row>
     <row r="92" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
@@ -1496,7 +1496,7 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2</v>
@@ -1507,27 +1507,27 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D94" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B74:D74"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B86:D86"/>
     <mergeCell ref="B91:D91"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B62:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Databae Schema.xlsx
+++ b/Database/Databae Schema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="90">
   <si>
     <t>Client Table</t>
   </si>
@@ -54,18 +54,12 @@
     <t>Address ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Address </t>
-  </si>
-  <si>
     <t>Service Provider</t>
   </si>
   <si>
     <t>Service Provider ID</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>nvarchar(100)</t>
   </si>
   <si>
@@ -84,6 +78,9 @@
     <t>Role</t>
   </si>
   <si>
+    <t>Service Requests</t>
+  </si>
+  <si>
     <t>Service ID</t>
   </si>
   <si>
@@ -213,7 +210,82 @@
     <t>Payment status Id</t>
   </si>
   <si>
-    <t>Service Requests</t>
+    <t xml:space="preserve">Contact us </t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>nvarchar(150)</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>FK-General_Contactus</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General_Contactus </t>
+  </si>
+  <si>
+    <t>Tital</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>Street name</t>
+  </si>
+  <si>
+    <t>House number</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>navrchar(50)</t>
+  </si>
+  <si>
+    <t>Avatar ID</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>FK-Avatar</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Have a dog</t>
+  </si>
+  <si>
+    <t>Admin-login</t>
+  </si>
+  <si>
+    <t>Cancel Service Requests</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>on time arrival</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>Quality of service</t>
+  </si>
+  <si>
+    <t>Feedback</t>
   </si>
 </sst>
 </file>
@@ -281,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -341,11 +413,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -355,6 +440,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,12 +455,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O94"/>
+  <dimension ref="B1:O137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,25 +776,25 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="I2" s="1"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -772,7 +858,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
@@ -781,38 +867,38 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="13" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -823,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
@@ -837,698 +923,1082 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="32" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="C35" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="41" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2"/>
+      <c r="C51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>63</v>
+      <c r="B52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="59" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>33</v>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-    </row>
-    <row r="69" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="B67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D72" s="2"/>
     </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
     <row r="74" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11"/>
+      <c r="B74" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="8" t="s">
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="79" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-    </row>
-    <row r="81" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="3" t="s">
+      <c r="B80" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="3" t="s">
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="86" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B86" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-    </row>
-    <row r="87" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B87" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>33</v>
-      </c>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D88" s="2"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="2"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B91" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-    </row>
-    <row r="92" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B92" s="3" t="s">
+      <c r="B91" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>33</v>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D94" s="2"/>
     </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B96" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+    </row>
+    <row r="97" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B97" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="102" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="13"/>
+    </row>
+    <row r="103" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B104" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B108" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B109" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="114" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B114" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B115" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="119" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B119" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B120" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="124" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B124" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+    </row>
+    <row r="125" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B125" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="134" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B134" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+    </row>
+    <row r="135" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B135" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D137" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B90:D90"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B62:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
